--- a/generated_files/gsa_results/ege_N500/sobol_total.xlsx
+++ b/generated_files/gsa_results/ege_N500/sobol_total.xlsx
@@ -537,52 +537,52 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.0399094498203873</v>
+        <v>0.03989138045473666</v>
       </c>
       <c r="D2">
-        <v>0.03932343544676706</v>
+        <v>0.03930324769049653</v>
       </c>
       <c r="E2">
-        <v>0.03954237498125997</v>
+        <v>0.03952628226887436</v>
       </c>
       <c r="F2">
-        <v>0.03922021080800272</v>
+        <v>0.03919974138496042</v>
       </c>
       <c r="G2">
-        <v>0.03924822277904991</v>
+        <v>0.03923240700797369</v>
       </c>
       <c r="H2">
-        <v>0.03941432531198355</v>
+        <v>0.03939901407969558</v>
       </c>
       <c r="I2">
-        <v>0.040284412400734</v>
+        <v>0.04026408733972883</v>
       </c>
       <c r="J2">
-        <v>0.03949389476729195</v>
+        <v>0.03947815154634135</v>
       </c>
       <c r="K2">
-        <v>0.0384354710444469</v>
+        <v>0.03841525768708862</v>
       </c>
       <c r="L2">
-        <v>0.03939300738857316</v>
+        <v>0.03937168467392564</v>
       </c>
       <c r="M2">
-        <v>0.03934737357057022</v>
+        <v>0.0393323296015653</v>
       </c>
       <c r="N2">
-        <v>0.03934844375578735</v>
+        <v>0.03933342228102224</v>
       </c>
       <c r="O2">
-        <v>0.04067954045021068</v>
+        <v>0.04065081302147004</v>
       </c>
       <c r="P2">
-        <v>0.03982890536093014</v>
+        <v>0.03980735669356601</v>
       </c>
       <c r="Q2">
-        <v>0.0397717082602974</v>
+        <v>0.0397539541932587</v>
       </c>
       <c r="R2">
-        <v>0.0402807339600941</v>
+        <v>0.04025861910089377</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -593,52 +593,52 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0.06938688422431789</v>
+        <v>0.06935153307132746</v>
       </c>
       <c r="D3">
-        <v>0.08746781935526285</v>
+        <v>0.08741856425800926</v>
       </c>
       <c r="E3">
-        <v>0.06571792215782105</v>
+        <v>0.06568737936769013</v>
       </c>
       <c r="F3">
-        <v>0.08629571225983196</v>
+        <v>0.08624629324350695</v>
       </c>
       <c r="G3">
-        <v>0.06464867564011199</v>
+        <v>0.06461889041043008</v>
       </c>
       <c r="H3">
-        <v>0.06473494678637251</v>
+        <v>0.06470603322997011</v>
       </c>
       <c r="I3">
-        <v>0.07695341280051181</v>
+        <v>0.07691027538786614</v>
       </c>
       <c r="J3">
-        <v>0.0651564624889788</v>
+        <v>0.06512671288449344</v>
       </c>
       <c r="K3">
-        <v>0.08752665793030481</v>
+        <v>0.08747605758497702</v>
       </c>
       <c r="L3">
-        <v>0.08434046364704305</v>
+        <v>0.08429080821382193</v>
       </c>
       <c r="M3">
-        <v>0.06411394472107158</v>
+        <v>0.06408572733417903</v>
       </c>
       <c r="N3">
-        <v>0.0640518025613438</v>
+        <v>0.06402365071034845</v>
       </c>
       <c r="O3">
-        <v>0.07494977967961375</v>
+        <v>0.07489476625897196</v>
       </c>
       <c r="P3">
-        <v>0.08245458337442012</v>
+        <v>0.08240615694054133</v>
       </c>
       <c r="Q3">
-        <v>0.06925456813710375</v>
+        <v>0.06921964368055181</v>
       </c>
       <c r="R3">
-        <v>0.080761834372324</v>
+        <v>0.08071346059427861</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -649,52 +649,52 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>6.908659484050778e-06</v>
+        <v>6.905016967634267E-06</v>
       </c>
       <c r="D4">
-        <v>2.745428309912811e-05</v>
+        <v>2.74398196851306E-05</v>
       </c>
       <c r="E4">
-        <v>1.768839065983273e-06</v>
+        <v>1.767959702176021E-06</v>
       </c>
       <c r="F4">
-        <v>2.078444535165383e-05</v>
+        <v>2.077320766111126E-05</v>
       </c>
       <c r="G4">
-        <v>8.604496210239629e-07</v>
+        <v>8.600217078374956E-07</v>
       </c>
       <c r="H4">
-        <v>6.770083290982108e-07</v>
+        <v>6.766807820942788E-07</v>
       </c>
       <c r="I4">
-        <v>4.080471370688178e-05</v>
+        <v>4.078233069586778E-05</v>
       </c>
       <c r="J4">
-        <v>1.574421535633913e-06</v>
+        <v>1.573648264872827E-06</v>
       </c>
       <c r="K4">
-        <v>5.300789932157812e-06</v>
+        <v>5.297872816358745E-06</v>
       </c>
       <c r="L4">
-        <v>3.387300985928526e-05</v>
+        <v>3.385430560285478E-05</v>
       </c>
       <c r="M4">
-        <v>3.4967216020307e-07</v>
+        <v>3.495046528676845E-07</v>
       </c>
       <c r="N4">
-        <v>3.772157576889007e-07</v>
+        <v>3.770352346852988E-07</v>
       </c>
       <c r="O4">
-        <v>3.404499768057286e-05</v>
+        <v>3.4023144115205E-05</v>
       </c>
       <c r="P4">
-        <v>5.486661530530133e-05</v>
+        <v>5.48364435225112E-05</v>
       </c>
       <c r="Q4">
-        <v>6.393635738090779e-06</v>
+        <v>6.390283976242288E-06</v>
       </c>
       <c r="R4">
-        <v>7.23307066646274e-05</v>
+        <v>7.22898996437924E-05</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -705,52 +705,52 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>0.9435359619548036</v>
+        <v>0.9429105930568794</v>
       </c>
       <c r="D5">
-        <v>0.9511249795574451</v>
+        <v>0.9504507469436304</v>
       </c>
       <c r="E5">
-        <v>0.9330865985640823</v>
+        <v>0.9325025925112214</v>
       </c>
       <c r="F5">
-        <v>0.9524499534025364</v>
+        <v>0.9517668315814013</v>
       </c>
       <c r="G5">
-        <v>0.9253185397636901</v>
+        <v>0.9247404328822358</v>
       </c>
       <c r="H5">
-        <v>0.9282544147659705</v>
+        <v>0.9276874536913616</v>
       </c>
       <c r="I5">
-        <v>0.9589641342435911</v>
+        <v>0.9582840808905176</v>
       </c>
       <c r="J5">
-        <v>0.9307513755328524</v>
+        <v>0.9301752427868263</v>
       </c>
       <c r="K5">
-        <v>0.9472091835953741</v>
+        <v>0.946529457015829</v>
       </c>
       <c r="L5">
-        <v>0.9542857300228152</v>
+        <v>0.9535875593774571</v>
       </c>
       <c r="M5">
-        <v>0.9260636031606045</v>
+        <v>0.9255031822210112</v>
       </c>
       <c r="N5">
-        <v>0.925933011480958</v>
+        <v>0.9253731628957772</v>
       </c>
       <c r="O5">
-        <v>0.949282680975147</v>
+        <v>0.9484902677786168</v>
       </c>
       <c r="P5">
-        <v>0.956345719825322</v>
+        <v>0.9556450648845265</v>
       </c>
       <c r="Q5">
-        <v>0.9431079739190065</v>
+        <v>0.9424858547031778</v>
       </c>
       <c r="R5">
-        <v>0.959727082443295</v>
+        <v>0.9590163289578878</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -761,52 +761,52 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.03743225325733074</v>
+        <v>0.03740806896110918</v>
       </c>
       <c r="D6">
-        <v>0.03088490075701154</v>
+        <v>0.0308653028521205</v>
       </c>
       <c r="E6">
-        <v>0.03822236513446462</v>
+        <v>0.03819873146947911</v>
       </c>
       <c r="F6">
-        <v>0.03203881320453137</v>
+        <v>0.03201802512802334</v>
       </c>
       <c r="G6">
-        <v>0.04188765987048428</v>
+        <v>0.0418617600955619</v>
       </c>
       <c r="H6">
-        <v>0.03839666252478731</v>
+        <v>0.03837340950243974</v>
       </c>
       <c r="I6">
-        <v>0.03429382787528626</v>
+        <v>0.0342711294522039</v>
       </c>
       <c r="J6">
-        <v>0.03836297735088658</v>
+        <v>0.03833947188811603</v>
       </c>
       <c r="K6">
-        <v>0.03322847715467783</v>
+        <v>0.03320661443770424</v>
       </c>
       <c r="L6">
-        <v>0.03215618448353901</v>
+        <v>0.03213492147112389</v>
       </c>
       <c r="M6">
-        <v>0.03852936133412799</v>
+        <v>0.03850619712294655</v>
       </c>
       <c r="N6">
-        <v>0.03852715584451842</v>
+        <v>0.03850400967846129</v>
       </c>
       <c r="O6">
-        <v>0.03305636483035697</v>
+        <v>0.03303151518677654</v>
       </c>
       <c r="P6">
-        <v>0.03176048707241916</v>
+        <v>0.03173952701086122</v>
       </c>
       <c r="Q6">
-        <v>0.03748518779172164</v>
+        <v>0.03746107754933013</v>
       </c>
       <c r="R6">
-        <v>0.03332685463654906</v>
+        <v>0.03330434501241303</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -817,52 +817,52 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>0.001779798347894928</v>
+        <v>0.001778744084838166</v>
       </c>
       <c r="D7">
-        <v>0.002124454122004779</v>
+        <v>0.002123146566556544</v>
       </c>
       <c r="E7">
-        <v>0.001683999392666656</v>
+        <v>0.001683063324789939</v>
       </c>
       <c r="F7">
-        <v>0.002092326255010584</v>
+        <v>0.002091015756926672</v>
       </c>
       <c r="G7">
-        <v>0.001813620080370898</v>
+        <v>0.001812692392849077</v>
       </c>
       <c r="H7">
-        <v>0.001646144242557818</v>
+        <v>0.001645253991010908</v>
       </c>
       <c r="I7">
-        <v>0.002009201512200708</v>
+        <v>0.002007947012295793</v>
       </c>
       <c r="J7">
-        <v>0.001668057460396557</v>
+        <v>0.00166714240819428</v>
       </c>
       <c r="K7">
-        <v>0.002010692297212404</v>
+        <v>0.002009413080461136</v>
       </c>
       <c r="L7">
-        <v>0.00212379028665538</v>
+        <v>0.002122437065897232</v>
       </c>
       <c r="M7">
-        <v>0.001630945214824651</v>
+        <v>0.00163007240385357</v>
       </c>
       <c r="N7">
-        <v>0.001629902696048842</v>
+        <v>0.001629031172820448</v>
       </c>
       <c r="O7">
-        <v>0.002239556185535826</v>
+        <v>0.002237911772929734</v>
       </c>
       <c r="P7">
-        <v>0.00215410613273974</v>
+        <v>0.002152740941914431</v>
       </c>
       <c r="Q7">
-        <v>0.001769031211704564</v>
+        <v>0.001767990506499604</v>
       </c>
       <c r="R7">
-        <v>0.002125910774084568</v>
+        <v>0.00212453997306775</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -873,52 +873,52 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>0.004854240763521512</v>
+        <v>0.004853630192427768</v>
       </c>
       <c r="D8">
-        <v>0.004073489998102749</v>
+        <v>0.004072447421675411</v>
       </c>
       <c r="E8">
-        <v>0.00491876490578882</v>
+        <v>0.004918421794222974</v>
       </c>
       <c r="F8">
-        <v>0.004195796020092197</v>
+        <v>0.004194741552695067</v>
       </c>
       <c r="G8">
-        <v>0.005440413276516621</v>
+        <v>0.005441935513186031</v>
       </c>
       <c r="H8">
-        <v>0.004930423392947227</v>
+        <v>0.004930158590991159</v>
       </c>
       <c r="I8">
-        <v>0.004543323951160653</v>
+        <v>0.004542545054166952</v>
       </c>
       <c r="J8">
-        <v>0.004931875063975725</v>
+        <v>0.004931588625958756</v>
       </c>
       <c r="K8">
-        <v>0.004252700084012363</v>
+        <v>0.004251454933753539</v>
       </c>
       <c r="L8">
-        <v>0.004224471955809807</v>
+        <v>0.004223427120596835</v>
       </c>
       <c r="M8">
-        <v>0.004938905464883357</v>
+        <v>0.004938673430508169</v>
       </c>
       <c r="N8">
-        <v>0.004938200409118937</v>
+        <v>0.004937969171030796</v>
       </c>
       <c r="O8">
-        <v>0.00431536302307167</v>
+        <v>0.004313450966151528</v>
       </c>
       <c r="P8">
-        <v>0.004240504199726994</v>
+        <v>0.004239584635045526</v>
       </c>
       <c r="Q8">
-        <v>0.004857027164012865</v>
+        <v>0.004856464163404099</v>
       </c>
       <c r="R8">
-        <v>0.004410726009131994</v>
+        <v>0.004409800288603144</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -929,52 +929,52 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>0.09619350233013123</v>
+        <v>0.09613261419199182</v>
       </c>
       <c r="D9">
-        <v>2.383135480390397e-05</v>
+        <v>2.381642996000023E-05</v>
       </c>
       <c r="E9">
-        <v>0.1318898592963694</v>
+        <v>0.1318093480147513</v>
       </c>
       <c r="F9">
-        <v>0.0006522302129796443</v>
+        <v>0.0006518130023131119</v>
       </c>
       <c r="G9">
-        <v>0.1434098494377034</v>
+        <v>0.1433219654073558</v>
       </c>
       <c r="H9">
-        <v>0.1477073376106082</v>
+        <v>0.1476186693039541</v>
       </c>
       <c r="I9">
-        <v>0.02807976677234847</v>
+        <v>0.02806160368771896</v>
       </c>
       <c r="J9">
-        <v>0.1393258233797499</v>
+        <v>0.1392413915196031</v>
       </c>
       <c r="K9">
-        <v>0.0003371603861567517</v>
+        <v>0.0003369416363386448</v>
       </c>
       <c r="L9">
-        <v>0.0005840280376439278</v>
+        <v>0.0005836474937229445</v>
       </c>
       <c r="M9">
-        <v>0.1546727811273204</v>
+        <v>0.1545804428036417</v>
       </c>
       <c r="N9">
-        <v>0.1552964875801627</v>
+        <v>0.1552038352293649</v>
       </c>
       <c r="O9">
-        <v>0.0008725801758210011</v>
+        <v>0.0008719344559580763</v>
       </c>
       <c r="P9">
-        <v>0.00180021936591181</v>
+        <v>0.001799050539795013</v>
       </c>
       <c r="Q9">
-        <v>0.09423017212937114</v>
+        <v>0.09417070569906923</v>
       </c>
       <c r="R9">
-        <v>0.007394082768108242</v>
+        <v>0.007389180715643825</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -985,52 +985,52 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>0.00197981498297363</v>
+        <v>0.001978524277412796</v>
       </c>
       <c r="D10">
-        <v>0.01920227688241333</v>
+        <v>0.0191896283152511</v>
       </c>
       <c r="E10">
-        <v>0.0005639996605840883</v>
+        <v>0.0005636492514185452</v>
       </c>
       <c r="F10">
-        <v>0.01324779378939281</v>
+        <v>0.0132389008175283</v>
       </c>
       <c r="G10">
-        <v>0.0002165214337512895</v>
+        <v>0.0002163868559613121</v>
       </c>
       <c r="H10">
-        <v>0.0002143268565524957</v>
+        <v>0.0002141965507754212</v>
       </c>
       <c r="I10">
-        <v>0.01461036635198262</v>
+        <v>0.01460047674365341</v>
       </c>
       <c r="J10">
-        <v>0.0003739758172577279</v>
+        <v>0.0003737456861952838</v>
       </c>
       <c r="K10">
-        <v>0.003287810159531089</v>
+        <v>0.003285580708012272</v>
       </c>
       <c r="L10">
-        <v>0.01590137918748738</v>
+        <v>0.01589050771318145</v>
       </c>
       <c r="M10">
-        <v>9.043278978205993e-05</v>
+        <v>9.037823381379727E-05</v>
       </c>
       <c r="N10">
-        <v>8.615055338952898e-05</v>
+        <v>8.609862015203266E-05</v>
       </c>
       <c r="O10">
-        <v>0.004698965079866684</v>
+        <v>0.004695329077651078</v>
       </c>
       <c r="P10">
-        <v>0.02639928439944824</v>
+        <v>0.02638127582467882</v>
       </c>
       <c r="Q10">
-        <v>0.002150027946768929</v>
+        <v>0.002148633125544319</v>
       </c>
       <c r="R10">
-        <v>0.01518483394941612</v>
+        <v>0.01517426313258536</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1041,52 +1041,52 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>0.0004718446894878138</v>
+        <v>0.0004716360254515314</v>
       </c>
       <c r="D11">
-        <v>7.348218495097308e-07</v>
+        <v>7.344880223493549E-07</v>
       </c>
       <c r="E11">
-        <v>4.00933911094144e-05</v>
+        <v>4.007654961114401E-05</v>
       </c>
       <c r="F11">
-        <v>1.757592590899574e-05</v>
+        <v>1.756773179873786E-05</v>
       </c>
       <c r="G11">
-        <v>1.952746170886576e-05</v>
+        <v>1.951923874226115E-05</v>
       </c>
       <c r="H11">
-        <v>1.137938723827546e-05</v>
+        <v>1.137474276275744E-05</v>
       </c>
       <c r="I11">
-        <v>0.0002096722032179934</v>
+        <v>0.0002095738052679976</v>
       </c>
       <c r="J11">
-        <v>2.647183308874549e-05</v>
+        <v>2.646085562755787E-05</v>
       </c>
       <c r="K11">
-        <v>1.920384401457501e-06</v>
+        <v>1.919469572716547E-06</v>
       </c>
       <c r="L11">
-        <v>0.0001669417345820284</v>
+        <v>0.0001668626485111486</v>
       </c>
       <c r="M11">
-        <v>1.156955237290416e-05</v>
+        <v>1.15648867921482E-05</v>
       </c>
       <c r="N11">
-        <v>1.294267046667744e-05</v>
+        <v>1.29374585492261E-05</v>
       </c>
       <c r="O11">
-        <v>0.04543593336875928</v>
+        <v>0.04541511741846702</v>
       </c>
       <c r="P11">
-        <v>0.0001324322664732782</v>
+        <v>0.0001323696499123225</v>
       </c>
       <c r="Q11">
-        <v>6.575097103429313e-05</v>
+        <v>6.57216025011229E-05</v>
       </c>
       <c r="R11">
-        <v>0.001686510502540935</v>
+        <v>0.001685714417950343</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1097,52 +1097,52 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>9.981532613885778e-06</v>
+        <v>9.975004616949823E-06</v>
       </c>
       <c r="D12">
-        <v>1.586506250602819e-07</v>
+        <v>1.585468257877125E-07</v>
       </c>
       <c r="E12">
-        <v>1.814587415322233e-06</v>
+        <v>1.813456614803137E-06</v>
       </c>
       <c r="F12">
-        <v>2.217634423049218e-06</v>
+        <v>2.216153094946677E-06</v>
       </c>
       <c r="G12">
-        <v>3.210832003686391e-06</v>
+        <v>3.208830958107747E-06</v>
       </c>
       <c r="H12">
-        <v>9.777787142138752e-07</v>
+        <v>9.77182663220189E-07</v>
       </c>
       <c r="I12">
-        <v>2.069197074968963e-05</v>
+        <v>2.067796329108954E-05</v>
       </c>
       <c r="J12">
-        <v>1.642371211391688e-06</v>
+        <v>1.641357643572431E-06</v>
       </c>
       <c r="K12">
-        <v>5.883372713345138e-07</v>
+        <v>5.879391649013598E-07</v>
       </c>
       <c r="L12">
-        <v>5.915308140086532e-05</v>
+        <v>5.911282631280264E-05</v>
       </c>
       <c r="M12">
-        <v>6.527314538322836e-07</v>
+        <v>6.523367408178073E-07</v>
       </c>
       <c r="N12">
-        <v>3.341676532922584e-07</v>
+        <v>3.339657410321883E-07</v>
       </c>
       <c r="O12">
-        <v>1.349122961943285e-05</v>
+        <v>1.348083679896223E-05</v>
       </c>
       <c r="P12">
-        <v>0.0003357730544525544</v>
+        <v>0.0003355448244235837</v>
       </c>
       <c r="Q12">
-        <v>4.864489994875152e-05</v>
+        <v>4.86132173072103E-05</v>
       </c>
       <c r="R12">
-        <v>2.901147134027074e-05</v>
+        <v>2.899135052104959E-05</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1153,52 +1153,52 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>0.01026652217734558</v>
+        <v>0.0102603379325891</v>
       </c>
       <c r="D13">
-        <v>3.069052958619494e-05</v>
+        <v>3.067153490823635E-05</v>
       </c>
       <c r="E13">
-        <v>0.01370660535412917</v>
+        <v>0.01369878827590933</v>
       </c>
       <c r="F13">
-        <v>0.0001788988394936296</v>
+        <v>0.0001787858179941538</v>
       </c>
       <c r="G13">
-        <v>0.01436516187840131</v>
+        <v>0.01435696361698463</v>
       </c>
       <c r="H13">
-        <v>0.0146889987031697</v>
+        <v>0.01468081328996684</v>
       </c>
       <c r="I13">
-        <v>0.003691953277590505</v>
+        <v>0.003689624540758905</v>
       </c>
       <c r="J13">
-        <v>0.01419793097663155</v>
+        <v>0.01418991451740385</v>
       </c>
       <c r="K13">
-        <v>6.471825781145845e-05</v>
+        <v>6.467665071823154E-05</v>
       </c>
       <c r="L13">
-        <v>0.0004423197982691333</v>
+        <v>0.0004420367575923607</v>
       </c>
       <c r="M13">
-        <v>0.01535582577101365</v>
+        <v>0.01534734539631976</v>
       </c>
       <c r="N13">
-        <v>0.01542336317177352</v>
+        <v>0.01541485297233421</v>
       </c>
       <c r="O13">
-        <v>0.003329490161512382</v>
+        <v>0.003327084556062467</v>
       </c>
       <c r="P13">
-        <v>0.000764171965710738</v>
+        <v>0.0007636858009512821</v>
       </c>
       <c r="Q13">
-        <v>0.01006264717722628</v>
+        <v>0.01005661572326441</v>
       </c>
       <c r="R13">
-        <v>0.001444345537779403</v>
+        <v>0.001443405209649854</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1209,52 +1209,52 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>0.006574217860598545</v>
+        <v>0.006569897836707819</v>
       </c>
       <c r="D14">
-        <v>1.885712602330981e-05</v>
+        <v>1.884479294050101E-05</v>
       </c>
       <c r="E14">
-        <v>0.00877561589366717</v>
+        <v>0.00877010913797268</v>
       </c>
       <c r="F14">
-        <v>0.0001115182788013385</v>
+        <v>0.0001114437925699653</v>
       </c>
       <c r="G14">
-        <v>0.009217273454918873</v>
+        <v>0.009211486372058854</v>
       </c>
       <c r="H14">
-        <v>0.009429287748390434</v>
+        <v>0.009423495740994152</v>
       </c>
       <c r="I14">
-        <v>0.002350272731761771</v>
+        <v>0.002348679750515842</v>
       </c>
       <c r="J14">
-        <v>0.009110204863909108</v>
+        <v>0.009104541666976166</v>
       </c>
       <c r="K14">
-        <v>4.067067253656816e-05</v>
+        <v>4.064315218468917E-05</v>
       </c>
       <c r="L14">
-        <v>0.0002718303836112971</v>
+        <v>0.000271645527148536</v>
       </c>
       <c r="M14">
-        <v>0.009857497690732242</v>
+        <v>0.009851488854986224</v>
       </c>
       <c r="N14">
-        <v>0.00990072383165303</v>
+        <v>0.009894693118727812</v>
       </c>
       <c r="O14">
-        <v>0.002102009242175458</v>
+        <v>0.002100389571853623</v>
       </c>
       <c r="P14">
-        <v>0.0004691008483424932</v>
+        <v>0.0004687826371811757</v>
       </c>
       <c r="Q14">
-        <v>0.006442103862797338</v>
+        <v>0.006437889985707812</v>
       </c>
       <c r="R14">
-        <v>0.0009078253923415958</v>
+        <v>0.0009071957281204577</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1265,52 +1265,52 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>0.00507419263366752</v>
+        <v>0.005070885357087687</v>
       </c>
       <c r="D15">
-        <v>1.006506055288259e-05</v>
+        <v>1.005846905542496E-05</v>
       </c>
       <c r="E15">
-        <v>0.006717194788965205</v>
+        <v>0.006713027282157106</v>
       </c>
       <c r="F15">
-        <v>7.017494422631692e-05</v>
+        <v>7.012803474247752E-05</v>
       </c>
       <c r="G15">
-        <v>0.007217695180798855</v>
+        <v>0.007213218631427674</v>
       </c>
       <c r="H15">
-        <v>0.007409002482189405</v>
+        <v>0.007404507669079861</v>
       </c>
       <c r="I15">
-        <v>0.00175037621627427</v>
+        <v>0.001749192350351419</v>
       </c>
       <c r="J15">
-        <v>0.007124050315279639</v>
+        <v>0.00711967421527171</v>
       </c>
       <c r="K15">
-        <v>2.820517502629576e-05</v>
+        <v>2.818607425365182E-05</v>
       </c>
       <c r="L15">
-        <v>0.0001408748291353865</v>
+        <v>0.0001407789661131517</v>
       </c>
       <c r="M15">
-        <v>0.007746666923629784</v>
+        <v>0.007742005923544058</v>
       </c>
       <c r="N15">
-        <v>0.007779774582752353</v>
+        <v>0.007775097356261139</v>
       </c>
       <c r="O15">
-        <v>0.001454518865655607</v>
+        <v>0.001453398439104209</v>
       </c>
       <c r="P15">
-        <v>0.0002370681519376828</v>
+        <v>0.0002369072192818249</v>
       </c>
       <c r="Q15">
-        <v>0.004948095434732557</v>
+        <v>0.004944885305593143</v>
       </c>
       <c r="R15">
-        <v>0.0006069701181619238</v>
+        <v>0.0006065492113628038</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1321,52 +1321,52 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>0.03734666698521538</v>
+        <v>0.03732242285357881</v>
       </c>
       <c r="D16">
-        <v>0.03755386685359649</v>
+        <v>0.0375291412984458</v>
       </c>
       <c r="E16">
-        <v>0.03753098177234762</v>
+        <v>0.03750780100050666</v>
       </c>
       <c r="F16">
-        <v>0.03818502547735055</v>
+        <v>0.03815941147296979</v>
       </c>
       <c r="G16">
-        <v>0.03754309260562447</v>
+        <v>0.03751991127854284</v>
       </c>
       <c r="H16">
-        <v>0.0377203015596173</v>
+        <v>0.03769752036967941</v>
       </c>
       <c r="I16">
-        <v>0.03594795180821813</v>
+        <v>0.03592365062333452</v>
       </c>
       <c r="J16">
-        <v>0.03756886013523106</v>
+        <v>0.03754588524481602</v>
       </c>
       <c r="K16">
-        <v>0.04107847760301056</v>
+        <v>0.0410506316694679</v>
       </c>
       <c r="L16">
-        <v>0.03639459881632113</v>
+        <v>0.0363697312428144</v>
       </c>
       <c r="M16">
-        <v>0.03768025135307815</v>
+        <v>0.03765767889148777</v>
       </c>
       <c r="N16">
-        <v>0.03766397478625382</v>
+        <v>0.0376414293932893</v>
       </c>
       <c r="O16">
-        <v>0.02661135652957664</v>
+        <v>0.02659075881252604</v>
       </c>
       <c r="P16">
-        <v>0.03450999397868958</v>
+        <v>0.03448645613896925</v>
       </c>
       <c r="Q16">
-        <v>0.03755069786450305</v>
+        <v>0.03752644340396354</v>
       </c>
       <c r="R16">
-        <v>0.03495100688829305</v>
+        <v>0.03492670639426695</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1377,52 +1377,52 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>0.06175062102711668</v>
+        <v>0.06172080317798766</v>
       </c>
       <c r="D17">
-        <v>0.07510335113147627</v>
+        <v>0.07506426487254717</v>
       </c>
       <c r="E17">
-        <v>0.05898621557129208</v>
+        <v>0.05896010000300007</v>
       </c>
       <c r="F17">
-        <v>0.07510115640073176</v>
+        <v>0.07506128880984785</v>
       </c>
       <c r="G17">
-        <v>0.05823287112866798</v>
+        <v>0.05820726491605503</v>
       </c>
       <c r="H17">
-        <v>0.05825050198519637</v>
+        <v>0.05822569384136578</v>
       </c>
       <c r="I17">
-        <v>0.06656079292870956</v>
+        <v>0.06652587947304449</v>
       </c>
       <c r="J17">
-        <v>0.05855754790218414</v>
+        <v>0.05853206394182753</v>
       </c>
       <c r="K17">
-        <v>0.07872102971766021</v>
+        <v>0.07867869370630599</v>
       </c>
       <c r="L17">
-        <v>0.07326613985298229</v>
+        <v>0.07322613760401869</v>
       </c>
       <c r="M17">
-        <v>0.05774882440559702</v>
+        <v>0.05772458172995068</v>
       </c>
       <c r="N17">
-        <v>0.05767392542459466</v>
+        <v>0.05764974955643317</v>
       </c>
       <c r="O17">
-        <v>0.06260340908492316</v>
+        <v>0.06256163548342969</v>
       </c>
       <c r="P17">
-        <v>0.07108445587569384</v>
+        <v>0.07104566159472323</v>
       </c>
       <c r="Q17">
-        <v>0.06217100685186291</v>
+        <v>0.06214119644787183</v>
       </c>
       <c r="R17">
-        <v>0.06929244028415084</v>
+        <v>0.06925398497337694</v>
       </c>
     </row>
   </sheetData>
